--- a/data/trans_orig/Q02D_LAB-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q02D_LAB-Edad-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,36</t>
+          <t>5,82</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,02</t>
+          <t>5,43</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,0; 12,29</t>
+          <t>2,0; 13,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,94; 9,15</t>
+          <t>3,08; 10,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,35; 7,87</t>
+          <t>3,54; 8,84</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,47</t>
+          <t>8,84</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,59</t>
+          <t>9,77</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>9,32</t>
+          <t>9,53</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,25; 12,21</t>
+          <t>6,45; 12,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,47; 11,06</t>
+          <t>8,63; 11,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,24; 10,68</t>
+          <t>8,42; 10,97</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,48</t>
+          <t>7,6</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,8</t>
+          <t>6,94</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,86; 7,12</t>
+          <t>4,95; 7,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,88; 8,35</t>
+          <t>6,97; 8,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,26; 7,6</t>
+          <t>6,36; 7,81</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,68</t>
+          <t>5,83</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>5,22</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,54; 5,9</t>
+          <t>3,63; 6,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,89; 6,75</t>
+          <t>4,99; 6,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,52; 6,06</t>
+          <t>4,64; 6,33</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>6,17</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>4,69</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,34; 3,23</t>
+          <t>1,43; 3,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,34; 8,58</t>
+          <t>4,37; 8,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,26; 6,56</t>
+          <t>3,36; 6,74</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,42</t>
+          <t>5,79</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,3</t>
+          <t>6,66</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,31</t>
+          <t>7,2</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6,52</t>
+          <t>6,1</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,6</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>7,65</t>
+          <t>6,55</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4,31</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>6,77</t>
+          <t>6,03</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>6,51</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>7,26</t>
+          <t>6,8</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>3,67</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,68; 10,42</t>
+          <t>4,2; 7,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,86; 8,1</t>
+          <t>4,61; 9,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,54; 9,39</t>
+          <t>4,56; 11,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,11; 8,35</t>
+          <t>4,61; 8,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,72; 7,58</t>
+          <t>5,48; 7,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,02; 9,71</t>
+          <t>4,73; 9,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,42; 5,85</t>
+          <t>2,88; 4,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,73; 8,23</t>
+          <t>4,71; 7,85</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>5,74; 7,4</t>
+          <t>5,56; 7,73</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,86; 8,83</t>
+          <t>5,13; 8,98</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,69; 5,24</t>
+          <t>2,81; 4,27</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>8,92</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,72</t>
+          <t>5,83</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,26</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,58</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,82</t>
+          <t>7,35</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,6</t>
+          <t>6,65</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,47</t>
+          <t>8,48</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,44</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,98</t>
+          <t>7,95</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5,86</t>
+          <t>6,42</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>7,58</t>
+          <t>7,71</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,77</t>
+          <t>4,2</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>5,62; 14,11</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4,05; 7,87</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2,61; 7,89</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4,87; 10,62</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5,31; 8,4</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>6,2; 11,63</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3,09; 8,31</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5,81; 10,78</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>5,28; 7,72</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>5,74; 10,38</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1,9; 7,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3,62</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4,72</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6,26</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5,82</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5,82</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>6,6</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>8,47</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7,61</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4,98</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>5,86</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>7,58</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>6,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>3,35; 4,01</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>4,5; 4,96</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>5,89; 6,68</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>4,88; 6,58</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5,05; 6,88</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>5,51; 6,17</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>6,41; 6,83</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>8,14; 8,88</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>6,89; 8,04</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>7,05; 8,23</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>4,72; 5,26</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>5,7; 6,03</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>7,29; 7,88</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>6,28; 7,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>6,44; 7,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_orig/Q02D_LAB-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q02D_LAB-Edad-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Tiempo dedicado de lunes a viernes al cuidado de las personas del hogar que lo necesitan por parte de la persona entrevistada</t>
+          <t>Número medio de horas diarias, de lunes a viernes, que dedica la persona entrevistada a cuidar a las personas del hogar que lo necesitan</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,51; 10,87</t>
+          <t>4,56; 10,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,15; 6,15</t>
+          <t>4,03; 6,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,29; 7,57</t>
+          <t>4,28; 7,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,0; 13,04</t>
+          <t>2,0; 11,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,53; 8,63</t>
+          <t>5,63; 8,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,32; 7,91</t>
+          <t>6,21; 7,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,51; 11,21</t>
+          <t>8,45; 11,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,08; 10,13</t>
+          <t>3,51; 10,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,67; 8,33</t>
+          <t>5,57; 8,36</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,82; 7,16</t>
+          <t>5,79; 7,11</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,35; 9,62</t>
+          <t>7,24; 9,51</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,54; 8,84</t>
+          <t>3,44; 9,06</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,43; 4,74</t>
+          <t>3,42; 4,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,93; 5,91</t>
+          <t>4,92; 5,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,51; 8,41</t>
+          <t>6,51; 8,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,45; 12,74</t>
+          <t>6,4; 12,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,48; 7,89</t>
+          <t>6,39; 7,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,49; 8,31</t>
+          <t>7,5; 8,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,61; 10,13</t>
+          <t>8,64; 10,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,63; 11,34</t>
+          <t>8,62; 11,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,48; 6,57</t>
+          <t>5,55; 6,59</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,64; 7,32</t>
+          <t>6,67; 7,3</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,0; 9,18</t>
+          <t>8,06; 9,27</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,42; 10,97</t>
+          <t>8,45; 11,11</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,8; 3,59</t>
+          <t>2,79; 3,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 4,96</t>
+          <t>4,28; 4,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,92; 7,05</t>
+          <t>5,97; 7,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,95; 7,44</t>
+          <t>5,05; 7,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,6; 5,65</t>
+          <t>4,59; 5,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,1; 6,8</t>
+          <t>6,14; 6,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,67; 8,84</t>
+          <t>7,73; 8,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,97; 8,48</t>
+          <t>6,99; 8,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,94; 4,66</t>
+          <t>3,96; 4,64</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,46; 5,92</t>
+          <t>5,41; 5,91</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,06; 7,88</t>
+          <t>7,03; 7,94</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,36; 7,81</t>
+          <t>6,36; 7,76</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,92; 2,89</t>
+          <t>1,89; 2,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,39; 4,25</t>
+          <t>3,4; 4,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,75; 6,42</t>
+          <t>4,72; 6,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,63; 6,13</t>
+          <t>3,5; 6,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,03; 5,72</t>
+          <t>4,01; 5,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,78; 5,75</t>
+          <t>4,77; 5,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,26; 7,99</t>
+          <t>6,37; 8,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,99; 6,95</t>
+          <t>5,02; 7,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,11; 4,17</t>
+          <t>3,09; 4,16</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,25; 4,9</t>
+          <t>4,24; 4,92</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,81; 7,02</t>
+          <t>5,79; 7,01</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,64; 6,33</t>
+          <t>4,62; 6,18</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,95; 8,46</t>
+          <t>2,96; 8,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,66; 7,04</t>
+          <t>4,57; 6,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,11; 5,23</t>
+          <t>3,16; 5,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,41</t>
+          <t>1,47; 3,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,98; 6,71</t>
+          <t>3,93; 6,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,94; 6,74</t>
+          <t>5,0; 6,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,62; 11,64</t>
+          <t>7,53; 11,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,37; 8,73</t>
+          <t>4,44; 8,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,0; 6,33</t>
+          <t>4,06; 6,46</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,04; 6,5</t>
+          <t>5,13; 6,51</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,85; 8,55</t>
+          <t>5,83; 8,77</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,36; 6,74</t>
+          <t>3,18; 6,66</t>
         </is>
       </c>
     </row>
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,2; 7,44</t>
+          <t>4,13; 7,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,61; 9,56</t>
+          <t>4,32; 9,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,56; 11,25</t>
+          <t>4,7; 11,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,42 +1444,42 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,61; 8,26</t>
+          <t>4,56; 8,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,48; 7,77</t>
+          <t>5,51; 7,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,73; 9,75</t>
+          <t>4,57; 9,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,88; 4,34</t>
+          <t>2,85; 4,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,71; 7,85</t>
+          <t>4,82; 7,75</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>5,56; 7,73</t>
+          <t>5,54; 7,77</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,13; 8,98</t>
+          <t>5,35; 9,59</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,81; 4,27</t>
+          <t>2,86; 4,29</t>
         </is>
       </c>
     </row>
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,62; 14,11</t>
+          <t>5,89; 14,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,05; 7,87</t>
+          <t>3,9; 7,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,61; 7,89</t>
+          <t>2,65; 7,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,87; 10,62</t>
+          <t>4,99; 10,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,31; 8,4</t>
+          <t>5,26; 8,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,2; 11,63</t>
+          <t>6,21; 11,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,22 +1604,22 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,81; 10,78</t>
+          <t>5,82; 10,7</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,28; 7,72</t>
+          <t>5,2; 7,62</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>5,74; 10,38</t>
+          <t>5,85; 10,36</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,9; 7,23</t>
+          <t>1,81; 7,23</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,35; 4,01</t>
+          <t>3,34; 4,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,5; 4,96</t>
+          <t>4,51; 4,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,89; 6,68</t>
+          <t>5,88; 6,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,05; 6,88</t>
+          <t>5,07; 6,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,51; 6,17</t>
+          <t>5,5; 6,22</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,41; 6,83</t>
+          <t>6,4; 6,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,14; 8,88</t>
+          <t>8,09; 8,87</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,05; 8,23</t>
+          <t>7,06; 8,2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,72; 5,26</t>
+          <t>4,71; 5,24</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>5,7; 6,03</t>
+          <t>5,7; 6,02</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>7,29; 7,88</t>
+          <t>7,3; 7,85</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>6,44; 7,49</t>
+          <t>6,44; 7,52</t>
         </is>
       </c>
     </row>
